--- a/Config.xlsx
+++ b/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProject2019\Hackathon2019\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath\HackathonPUA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -169,6 +169,30 @@
   </si>
   <si>
     <t>OuputFilePath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Runtime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ExcelFileName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>System.String</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Description (Assets will always overwrite other config)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>.xlsx$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Key</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -187,30 +211,63 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Runtime</t>
+    <t>{0} is mandatory.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ExcelFileName</t>
+    <t>WelcomeMessage</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>bc.xls</t>
-    </r>
+    <t>^\\</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>C:\Project\output</t>
+    <t>{0} is must be a server path.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>InputFilePath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Match</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>InputFilePath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{0} is not a vaild {1}.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>System.DateTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{0} is not a date.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Test.xlsx for example</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UserMailAddress</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -218,46 +275,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Description (Assets will always overwrite other config)</t>
+    <t>experiment@gmail.com</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>.xlsx$</t>
+    <t>{0} is not an Excel file name.(regex is {2})</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Key</t>
+    <t>^[a-zA-Z0-9_-]+@gmail.com$</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>{0} is not a date.</t>
+    <t>The {0} must be a mail address of Gmail.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>{0} is not an Excel file name.</t>
+    <t>UserMailAddress</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>untime</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{0} is mandatory.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>WelcomeMessage</t>
+    <t>D:\Project\output</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -265,63 +303,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>^\\</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{0} is must be a server path.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>System.Data.DataTable</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>InputDataTable</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{0} is must be an object of DataTable.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{0} is empty.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{0} is not a vaild string.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>InputFilePath</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Message</t>
+    <t>\\Project\input</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Match</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>InputFilePath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>InputFilePath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>^\d{4}/\d{2}/\d{2}$</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>20:9:30 PM</t>
+    <t>Test.xlsx</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -381,12 +371,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -670,7 +663,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -741,7 +734,7 @@
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3"/>
     </row>
@@ -750,31 +743,41 @@
         <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>49</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44104</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1764,6 +1767,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1771,7 +1775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1788,8 +1792,8 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
+      <c r="C1" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2984,9 +2988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3001,7 +3003,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -4034,122 +4036,123 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="34.42578125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="38.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>58</v>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
